--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H2">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J2">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N2">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q2">
-        <v>4.19491015354</v>
+        <v>25.25894407465733</v>
       </c>
       <c r="R2">
-        <v>37.75419138185999</v>
+        <v>227.330496671916</v>
       </c>
       <c r="S2">
-        <v>0.01673697404959843</v>
+        <v>0.08838168078681262</v>
       </c>
       <c r="T2">
-        <v>0.01673697404959844</v>
+        <v>0.08838168078681262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H3">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J3">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q3">
-        <v>5.762649737666667</v>
+        <v>19.86835304971667</v>
       </c>
       <c r="R3">
-        <v>51.863847639</v>
+        <v>178.81517744745</v>
       </c>
       <c r="S3">
-        <v>0.02299198685694391</v>
+        <v>0.0695198671729739</v>
       </c>
       <c r="T3">
-        <v>0.02299198685694392</v>
+        <v>0.06951986717297388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H4">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J4">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N4">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q4">
-        <v>5.473831047004444</v>
+        <v>14.75972257200644</v>
       </c>
       <c r="R4">
-        <v>49.26447942303999</v>
+        <v>132.837503148058</v>
       </c>
       <c r="S4">
-        <v>0.02183964967838161</v>
+        <v>0.05164464060751452</v>
       </c>
       <c r="T4">
-        <v>0.02183964967838162</v>
+        <v>0.05164464060751453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H5">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J5">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N5">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O5">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P5">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q5">
-        <v>2.340853315157778</v>
+        <v>3.879232548053111</v>
       </c>
       <c r="R5">
-        <v>21.06767983642</v>
+        <v>34.913092932478</v>
       </c>
       <c r="S5">
-        <v>0.009339604367128102</v>
+        <v>0.01357353228014917</v>
       </c>
       <c r="T5">
-        <v>0.009339604367128104</v>
+        <v>0.01357353228014917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H6">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J6">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N6">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q6">
-        <v>6.386106427888889</v>
+        <v>26.250228589112</v>
       </c>
       <c r="R6">
-        <v>57.47495785099999</v>
+        <v>236.252057302008</v>
       </c>
       <c r="S6">
-        <v>0.02547947242001185</v>
+        <v>0.09185021024182435</v>
       </c>
       <c r="T6">
-        <v>0.02547947242001186</v>
+        <v>0.09185021024182435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2165933333333333</v>
+        <v>0.7467663333333333</v>
       </c>
       <c r="H7">
-        <v>0.6497799999999999</v>
+        <v>2.240299</v>
       </c>
       <c r="I7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937625</v>
       </c>
       <c r="J7">
-        <v>0.127917128882738</v>
+        <v>0.3886117604937624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N7">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q7">
-        <v>7.902454406431111</v>
+        <v>21.04638465713544</v>
       </c>
       <c r="R7">
-        <v>71.12208965788</v>
+        <v>189.417461914219</v>
       </c>
       <c r="S7">
-        <v>0.0315294415106741</v>
+        <v>0.07364182940448789</v>
       </c>
       <c r="T7">
-        <v>0.03152944151067411</v>
+        <v>0.07364182940448789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J8">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N8">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q8">
-        <v>6.845667539875</v>
+        <v>11.95552594683333</v>
       </c>
       <c r="R8">
-        <v>61.611007858875</v>
+        <v>107.5997335215</v>
       </c>
       <c r="S8">
-        <v>0.02731304265727314</v>
+        <v>0.04183268606749209</v>
       </c>
       <c r="T8">
-        <v>0.02731304265727316</v>
+        <v>0.04183268606749208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J9">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q9">
         <v>9.404059397916669</v>
@@ -1013,10 +1013,10 @@
         <v>84.63653458125002</v>
       </c>
       <c r="S9">
-        <v>0.03752058860449984</v>
+        <v>0.03290504042252495</v>
       </c>
       <c r="T9">
-        <v>0.03752058860449985</v>
+        <v>0.03290504042252494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J10">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N10">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q10">
-        <v>8.932736613111112</v>
+        <v>6.986049997027778</v>
       </c>
       <c r="R10">
-        <v>80.394629518</v>
+        <v>62.87444997325</v>
       </c>
       <c r="S10">
-        <v>0.03564009130430901</v>
+        <v>0.02444436469604871</v>
       </c>
       <c r="T10">
-        <v>0.03564009130430902</v>
+        <v>0.02444436469604871</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J11">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N11">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O11">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P11">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q11">
-        <v>3.820034987319445</v>
+        <v>1.836112596194445</v>
       </c>
       <c r="R11">
-        <v>34.380314885875</v>
+        <v>16.52501336575</v>
       </c>
       <c r="S11">
-        <v>0.01524128625195214</v>
+        <v>0.006424604167373719</v>
       </c>
       <c r="T11">
-        <v>0.01524128625195215</v>
+        <v>0.006424604167373719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J12">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N12">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q12">
-        <v>10.42147742847222</v>
+        <v>12.424719263</v>
       </c>
       <c r="R12">
-        <v>93.79329685625001</v>
+        <v>111.822473367</v>
       </c>
       <c r="S12">
-        <v>0.04157991253558138</v>
+        <v>0.04347440528481891</v>
       </c>
       <c r="T12">
-        <v>0.0415799125355814</v>
+        <v>0.04347440528481891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.2087477693050469</v>
+        <v>0.1839371421107511</v>
       </c>
       <c r="J13">
-        <v>0.2087477693050469</v>
+        <v>0.183937142110751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N13">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q13">
-        <v>12.89600340302778</v>
+        <v>9.961643571152777</v>
       </c>
       <c r="R13">
-        <v>116.06403062725</v>
+        <v>89.65479214037499</v>
       </c>
       <c r="S13">
-        <v>0.05145284795143134</v>
+        <v>0.03485604147249267</v>
       </c>
       <c r="T13">
-        <v>0.05145284795143135</v>
+        <v>0.03485604147249267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H14">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J14">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N14">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q14">
-        <v>3.993931748557</v>
+        <v>8.766739271942665</v>
       </c>
       <c r="R14">
-        <v>35.945385737013</v>
+        <v>78.90065344748399</v>
       </c>
       <c r="S14">
-        <v>0.01593510458741424</v>
+        <v>0.03067504126791421</v>
       </c>
       <c r="T14">
-        <v>0.01593510458741424</v>
+        <v>0.03067504126791421</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H15">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J15">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q15">
-        <v>5.486560832216668</v>
+        <v>6.895801757783333</v>
       </c>
       <c r="R15">
-        <v>49.37904748995</v>
+        <v>62.06221582005001</v>
       </c>
       <c r="S15">
-        <v>0.02189043934418033</v>
+        <v>0.02412858383644908</v>
       </c>
       <c r="T15">
-        <v>0.02189043934418034</v>
+        <v>0.02412858383644907</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H16">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J16">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N16">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q16">
-        <v>5.211579462892445</v>
+        <v>5.122725602960221</v>
       </c>
       <c r="R16">
-        <v>46.904215166032</v>
+        <v>46.104530426642</v>
       </c>
       <c r="S16">
-        <v>0.02079331071113471</v>
+        <v>0.0179245457633171</v>
       </c>
       <c r="T16">
-        <v>0.02079331071113471</v>
+        <v>0.0179245457633171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H17">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J17">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N17">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O17">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P17">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q17">
-        <v>2.228702888006778</v>
+        <v>1.346383293913556</v>
       </c>
       <c r="R17">
-        <v>20.058325992061</v>
+        <v>12.117449645222</v>
       </c>
       <c r="S17">
-        <v>0.00889214334408482</v>
+        <v>0.004711029017984771</v>
       </c>
       <c r="T17">
-        <v>0.008892143344084821</v>
+        <v>0.004711029017984771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H18">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J18">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N18">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q18">
-        <v>6.080147673838889</v>
+        <v>9.110789001688</v>
       </c>
       <c r="R18">
-        <v>54.72132906455</v>
+        <v>81.997101015192</v>
       </c>
       <c r="S18">
-        <v>0.02425874932002818</v>
+        <v>0.03187887992796532</v>
       </c>
       <c r="T18">
-        <v>0.02425874932002819</v>
+        <v>0.03187887992796531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2062163333333333</v>
+        <v>0.2591836666666666</v>
       </c>
       <c r="H19">
-        <v>0.618649</v>
+        <v>0.777551</v>
       </c>
       <c r="I19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="J19">
-        <v>0.1217886113241051</v>
+        <v>0.1348772922648653</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N19">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q19">
-        <v>7.523847326917112</v>
+        <v>7.304666670181221</v>
       </c>
       <c r="R19">
-        <v>67.714625942254</v>
+        <v>65.74200003163099</v>
       </c>
       <c r="S19">
-        <v>0.03001886401726281</v>
+        <v>0.02555921245123484</v>
       </c>
       <c r="T19">
-        <v>0.03001886401726281</v>
+        <v>0.02555921245123484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H20">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J20">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N20">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O20">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P20">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q20">
-        <v>10.361759912144</v>
+        <v>2.82653832582</v>
       </c>
       <c r="R20">
-        <v>93.25583920929598</v>
+        <v>25.43884493238</v>
       </c>
       <c r="S20">
-        <v>0.04134164985902596</v>
+        <v>0.009890128712662902</v>
       </c>
       <c r="T20">
-        <v>0.04134164985902597</v>
+        <v>0.009890128712662902</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H21">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J21">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O21">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P21">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q21">
-        <v>14.23420069893333</v>
+        <v>2.22331785525</v>
       </c>
       <c r="R21">
-        <v>128.1078062904</v>
+        <v>20.00986069725</v>
       </c>
       <c r="S21">
-        <v>0.05679202628780485</v>
+        <v>0.00777944511019676</v>
       </c>
       <c r="T21">
-        <v>0.05679202628780487</v>
+        <v>0.007779445110196759</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H22">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J22">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N22">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O22">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P22">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q22">
-        <v>13.52079568637155</v>
+        <v>1.65164946741</v>
       </c>
       <c r="R22">
-        <v>121.687161177344</v>
+        <v>14.86484520669</v>
       </c>
       <c r="S22">
-        <v>0.05394566230262537</v>
+        <v>0.005779163038996516</v>
       </c>
       <c r="T22">
-        <v>0.0539456623026254</v>
+        <v>0.005779163038996516</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H23">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J23">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N23">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O23">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P23">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q23">
-        <v>5.782092858590222</v>
+        <v>0.43409571831</v>
       </c>
       <c r="R23">
-        <v>52.03883572731201</v>
+        <v>3.90686146479</v>
       </c>
       <c r="S23">
-        <v>0.02306956158403697</v>
+        <v>0.001518911839433931</v>
       </c>
       <c r="T23">
-        <v>0.02306956158403697</v>
+        <v>0.001518911839433931</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H24">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J24">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N24">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O24">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P24">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q24">
-        <v>15.77418804151111</v>
+        <v>2.93746551516</v>
       </c>
       <c r="R24">
-        <v>141.9676923736</v>
+        <v>26.43718963644</v>
       </c>
       <c r="S24">
-        <v>0.06293631239788602</v>
+        <v>0.01027826573889207</v>
       </c>
       <c r="T24">
-        <v>0.06293631239788605</v>
+        <v>0.01027826573889207</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5350026666666666</v>
+        <v>0.083565</v>
       </c>
       <c r="H25">
-        <v>1.605008</v>
+        <v>0.250695</v>
       </c>
       <c r="I25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="J25">
-        <v>0.3159654270581206</v>
+        <v>0.04348661732071647</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N25">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O25">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P25">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q25">
-        <v>19.51968749724089</v>
+        <v>2.355142506255</v>
       </c>
       <c r="R25">
-        <v>175.677187475168</v>
+        <v>21.196282556295</v>
       </c>
       <c r="S25">
-        <v>0.07788021462674138</v>
+        <v>0.00824070288053429</v>
       </c>
       <c r="T25">
-        <v>0.0778802146267414</v>
+        <v>0.00824070288053429</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H26">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I26">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J26">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N26">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O26">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P26">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q26">
-        <v>3.793992742347</v>
+        <v>4.452681526347999</v>
       </c>
       <c r="R26">
-        <v>34.145934681123</v>
+        <v>40.07413373713199</v>
       </c>
       <c r="S26">
-        <v>0.01513738214856407</v>
+        <v>0.01558004468214752</v>
       </c>
       <c r="T26">
-        <v>0.01513738214856408</v>
+        <v>0.01558004468214752</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H27">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I27">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J27">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O27">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P27">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q27">
-        <v>5.211899774050001</v>
+        <v>3.50242069985</v>
       </c>
       <c r="R27">
-        <v>46.90709796645001</v>
+        <v>31.52178629865</v>
       </c>
       <c r="S27">
-        <v>0.02079458869786996</v>
+        <v>0.01225505814337835</v>
       </c>
       <c r="T27">
-        <v>0.02079458869786997</v>
+        <v>0.01225505814337834</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H28">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I28">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J28">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N28">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O28">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P28">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q28">
-        <v>4.950684163674667</v>
+        <v>2.601864267807333</v>
       </c>
       <c r="R28">
-        <v>44.55615747307201</v>
+        <v>23.416778410266</v>
       </c>
       <c r="S28">
-        <v>0.0197523830886479</v>
+        <v>0.009103988531281519</v>
       </c>
       <c r="T28">
-        <v>0.0197523830886479</v>
+        <v>0.009103988531281519</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H29">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I29">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J29">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N29">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O29">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P29">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q29">
-        <v>2.117132468525667</v>
+        <v>0.6838364680673332</v>
       </c>
       <c r="R29">
-        <v>19.054192216731</v>
+        <v>6.154528212605999</v>
       </c>
       <c r="S29">
-        <v>0.008446996452444639</v>
+        <v>0.002392761005862766</v>
       </c>
       <c r="T29">
-        <v>0.008446996452444641</v>
+        <v>0.002392761005862766</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H30">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I30">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J30">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N30">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O30">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P30">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q30">
-        <v>5.775771244783334</v>
+        <v>4.627426528824</v>
       </c>
       <c r="R30">
-        <v>51.98194120305001</v>
+        <v>41.646838759416</v>
       </c>
       <c r="S30">
-        <v>0.02304433942614446</v>
+        <v>0.0161914818420809</v>
       </c>
       <c r="T30">
-        <v>0.02304433942614447</v>
+        <v>0.0161914818420809</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.195893</v>
+        <v>0.131641</v>
       </c>
       <c r="H31">
-        <v>0.5876790000000001</v>
+        <v>0.394923</v>
       </c>
       <c r="I31">
-        <v>0.1156917885817948</v>
+        <v>0.0685050175398365</v>
       </c>
       <c r="J31">
-        <v>0.1156917885817948</v>
+        <v>0.06850501753983648</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N31">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O31">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P31">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q31">
-        <v>7.147198287292667</v>
+        <v>3.710085737640332</v>
       </c>
       <c r="R31">
-        <v>64.32478458563401</v>
+        <v>33.39077163876299</v>
       </c>
       <c r="S31">
-        <v>0.02851609876812375</v>
+        <v>0.01298168333508544</v>
       </c>
       <c r="T31">
-        <v>0.02851609876812375</v>
+        <v>0.01298168333508544</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H32">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J32">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N32">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O32">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P32">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q32">
-        <v>3.603705296172</v>
+        <v>11.73745985951733</v>
       </c>
       <c r="R32">
-        <v>32.433347665548</v>
+        <v>105.637138735656</v>
       </c>
       <c r="S32">
-        <v>0.01437816778352988</v>
+        <v>0.04106966734182298</v>
       </c>
       <c r="T32">
-        <v>0.01437816778352989</v>
+        <v>0.04106966734182298</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H33">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J33">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O33">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P33">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q33">
-        <v>4.950497297800001</v>
+        <v>9.232531482966667</v>
       </c>
       <c r="R33">
-        <v>44.55447568020001</v>
+        <v>83.09278334670002</v>
       </c>
       <c r="S33">
-        <v>0.01975163752576799</v>
+        <v>0.03230485993278117</v>
       </c>
       <c r="T33">
-        <v>0.01975163752576799</v>
+        <v>0.03230485993278116</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H34">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J34">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N34">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O34">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P34">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q34">
-        <v>4.702382938474667</v>
+        <v>6.858626026269778</v>
       </c>
       <c r="R34">
-        <v>42.321446446272</v>
+        <v>61.727634236428</v>
       </c>
       <c r="S34">
-        <v>0.0187617036675049</v>
+        <v>0.02399850501660862</v>
       </c>
       <c r="T34">
-        <v>0.0187617036675049</v>
+        <v>0.02399850501660862</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H35">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J35">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N35">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O35">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P35">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q35">
-        <v>2.010947834550667</v>
+        <v>1.802622318016444</v>
       </c>
       <c r="R35">
-        <v>18.098530510956</v>
+        <v>16.223600862148</v>
       </c>
       <c r="S35">
-        <v>0.008023337923833262</v>
+        <v>0.006307420841473754</v>
       </c>
       <c r="T35">
-        <v>0.008023337923833262</v>
+        <v>0.006307420841473754</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H36">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J36">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N36">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O36">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P36">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q36">
-        <v>5.486087833533334</v>
+        <v>12.198095195792</v>
       </c>
       <c r="R36">
-        <v>49.37479050180001</v>
+        <v>109.782856762128</v>
       </c>
       <c r="S36">
-        <v>0.02188855216033165</v>
+        <v>0.04268144197220433</v>
       </c>
       <c r="T36">
-        <v>0.02188855216033165</v>
+        <v>0.04268144197220433</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.186068</v>
+        <v>0.3470113333333333</v>
       </c>
       <c r="H37">
-        <v>0.558204</v>
+        <v>1.041034</v>
       </c>
       <c r="I37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="J37">
-        <v>0.1098892748481946</v>
+        <v>0.1805821702700682</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N37">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O37">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P37">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q37">
-        <v>6.788731046642668</v>
+        <v>9.779945447083776</v>
       </c>
       <c r="R37">
-        <v>61.098579419784</v>
+        <v>88.019509023754</v>
       </c>
       <c r="S37">
-        <v>0.02708587578722695</v>
+        <v>0.03422027516517735</v>
       </c>
       <c r="T37">
-        <v>0.02708587578722696</v>
+        <v>0.03422027516517735</v>
       </c>
     </row>
   </sheetData>
